--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -5328,12 +5328,12 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6169,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6197,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,15 +6219,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,7 +6252,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6261,7 +6269,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6273,7 +6281,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,7 +6302,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6323,7 +6331,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,14 +6374,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6394,7 +6402,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6411,19 +6419,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6444,7 +6452,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6461,7 +6469,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6473,7 +6481,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6494,7 +6502,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,19 +6519,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,19 +6569,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6589,12 +6597,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6611,19 +6619,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6639,12 +6647,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6661,19 +6669,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,7 +6702,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6711,19 +6719,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6761,19 +6769,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,14 +6824,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,14 +6874,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6894,7 +6902,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6923,7 +6931,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6973,7 +6981,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6989,12 +6997,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7011,19 +7019,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7039,12 +7042,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7061,19 +7064,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7114,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7159,11 +7162,7 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H132" s="16" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7173,7 +7172,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7194,7 +7193,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7210,7 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7223,7 +7222,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7244,7 +7243,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7266,14 +7265,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7294,7 +7293,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7316,14 +7315,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7344,7 +7343,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7366,14 +7365,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7389,12 +7388,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7411,19 +7410,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7461,19 +7460,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7494,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,7 +7512,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7539,7 +7533,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7557,13 +7551,18 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7584,7 +7583,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7606,14 +7605,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7634,7 +7633,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7663,7 +7662,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7684,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7702,18 +7701,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7734,7 +7728,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7752,13 +7746,18 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,18 +7796,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7829,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7853,7 +7847,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7891,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7919,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7936,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7954,23 +7948,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7981,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8009,13 +8003,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8026,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8054,7 +8048,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8071,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8089,7 +8083,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8099,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8116,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8144,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8161,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8189,13 +8183,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8206,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8234,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8251,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8279,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8296,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8341,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8369,7 +8363,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8386,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8414,13 +8408,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8459,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8476,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8504,7 +8498,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8521,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8549,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8594,13 +8588,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8634,18 +8628,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8684,13 +8678,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8729,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8746,14 +8740,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8774,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8798,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8819,7 +8813,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8843,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8864,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8888,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8909,13 +8903,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8933,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8954,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8978,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8999,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9023,7 +9017,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9044,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9061,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9089,7 +9083,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9106,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9129,18 +9123,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9151,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9179,13 +9173,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9224,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9241,14 +9235,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9269,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9293,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9314,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9338,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9359,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9383,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9404,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9428,7 +9422,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9449,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9466,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9494,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9511,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9539,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9556,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9584,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9601,14 +9595,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9629,7 +9623,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9653,7 +9647,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9669,12 +9663,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9691,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9736,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9764,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9781,14 +9775,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9809,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9833,7 +9827,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9854,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9871,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9899,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9916,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9944,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9961,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9989,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10006,14 +10000,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10034,7 +10028,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10058,7 +10052,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10067,45 +10061,15 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B196" s="22" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C196" s="22" t="inlineStr">
-        <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
-        </is>
-      </c>
+      <c r="A196" s="22" t="n"/>
+      <c r="B196" s="22" t="n"/>
+      <c r="C196" s="22" t="n"/>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E196" s="22" t="n"/>
       <c r="G196" s="22" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L196" s="26" t="n"/>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11825,7 +11789,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4489,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4530,18 +4530,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,15 +4598,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,15 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I84" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4832,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4865,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4882,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,13 +4965,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4990,7 +4990,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5006,18 +5006,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,19 +5028,15 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5061,7 +5057,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5078,7 +5074,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5090,7 +5086,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5111,7 +5107,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5140,7 +5136,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5161,7 +5157,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5178,7 +5174,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5190,7 +5186,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5211,7 +5207,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5228,7 +5224,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5240,7 +5236,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5261,7 +5257,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5274,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5290,7 +5286,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5311,7 +5307,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5328,19 +5324,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5378,19 +5374,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5411,7 +5407,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5428,7 +5424,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5478,7 +5474,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5490,7 +5486,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5511,7 +5507,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5528,7 +5524,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5540,7 +5536,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5561,7 +5557,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5578,7 +5574,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5590,7 +5586,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5606,12 +5602,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5628,19 +5624,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5690,7 +5686,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5711,7 +5707,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5740,7 +5736,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5761,7 +5757,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5790,7 +5786,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5811,7 +5807,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5828,19 +5824,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5878,7 +5874,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
@@ -5890,7 +5886,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5907,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5940,7 +5936,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5981,12 +5977,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I108" s="16" t="n"/>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,19 +6024,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6052,12 +6048,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,19 +6070,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6148,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,19 +6170,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6202,7 +6199,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6219,7 +6216,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6231,7 +6228,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6252,7 +6249,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6281,7 +6278,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6302,7 +6299,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6331,7 +6328,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6352,7 +6349,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6374,14 +6371,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6402,7 +6399,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6419,7 +6416,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6431,7 +6428,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6469,7 +6466,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6481,7 +6478,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6502,7 +6499,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6524,14 +6521,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6552,7 +6549,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6569,19 +6566,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6597,12 +6594,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6619,19 +6616,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6652,7 +6649,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6674,14 +6671,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6719,19 +6716,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6752,7 +6749,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6774,14 +6771,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6802,7 +6799,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6824,14 +6821,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6881,7 +6878,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6902,7 +6899,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6931,7 +6928,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6952,7 +6949,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6981,7 +6978,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6997,12 +6994,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7019,14 +7016,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7064,19 +7066,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7114,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7162,7 +7159,11 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7172,7 +7173,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7208,11 +7209,7 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H133" s="16" t="n"/>
       <c r="I133" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7222,7 +7219,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7243,7 +7240,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,14 +7262,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7293,7 +7290,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,14 +7312,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,7 +7340,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,14 +7362,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7388,12 +7385,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7410,19 +7407,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7440,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7457,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7490,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7512,7 +7514,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7533,7 +7535,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7551,18 +7553,13 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,14 +7602,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7633,7 +7630,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7662,7 +7659,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7680,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7701,13 +7698,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7728,7 +7730,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7746,18 +7748,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7796,13 +7793,18 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7825,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7847,7 +7849,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7870,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7887,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7930,14 +7932,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,23 +7950,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7975,14 +7977,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8005,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8022,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8048,7 +8050,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8065,14 +8067,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8085,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,13 +8095,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8110,14 +8112,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,13 +8140,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8155,14 +8157,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8185,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8202,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8230,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8247,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8292,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8320,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8337,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,7 +8365,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8380,14 +8382,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8410,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8427,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8455,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8472,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,7 +8500,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8515,14 +8517,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,13 +8545,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8560,14 +8562,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,13 +8590,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8607,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,18 +8630,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8650,14 +8652,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8680,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8697,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8725,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8742,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8770,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8792,7 +8794,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,7 +8815,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8837,7 +8839,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,13 +8860,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8875,14 +8877,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8905,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8922,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8972,7 +8974,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9017,7 +9019,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9040,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9057,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9100,14 +9102,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,18 +9125,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9145,14 +9147,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9175,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9192,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9220,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9237,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9265,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9287,7 +9289,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9332,7 +9334,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9355,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9377,7 +9379,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9400,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9422,7 +9424,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9445,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9462,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9490,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9507,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9535,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9552,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9597,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,7 +9625,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9647,7 +9649,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9665,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9687,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9732,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9760,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9777,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9827,7 +9829,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9850,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9867,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9895,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9912,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9940,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9957,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9985,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10002,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10052,7 +10054,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10063,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11821,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,19 +1122,15 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1172,19 +1168,19 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1205,13 +1201,13 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1222,19 +1218,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1255,13 +1251,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1272,19 +1268,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1305,13 +1301,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1322,19 +1318,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1355,7 +1351,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1372,19 +1368,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1405,13 +1401,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,19 +1418,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1455,13 +1451,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,19 +1468,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1522,19 +1518,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
+          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1572,19 +1568,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1601,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1622,19 +1618,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1655,7 +1651,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1677,14 +1673,14 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1722,19 +1718,19 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1772,19 +1768,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1805,7 +1801,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1818,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,17 +1841,17 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1868,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1901,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1918,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1972,19 +1968,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2051,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2084,7 +2080,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
+          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2122,14 +2118,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2167,14 +2168,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2212,14 +2213,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,13 +2241,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,7 +2265,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2285,13 +2286,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2302,7 +2303,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2310,7 +2311,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2331,13 +2332,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2348,19 +2349,15 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I33" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I33" s="16" t="n"/>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2398,19 +2395,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2431,13 +2428,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2448,19 +2445,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2481,13 +2478,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2498,19 +2495,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,13 +2528,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2548,19 +2545,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2581,7 +2578,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2598,19 +2595,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2621,23 +2618,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,15 +2645,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2677,13 +2678,13 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2694,7 +2695,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2702,7 +2703,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2718,12 +2719,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2740,19 +2741,15 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I41" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="n"/>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2773,7 +2770,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2788,13 +2785,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2830,21 +2835,13 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2894,7 +2891,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2915,7 +2912,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2932,19 +2929,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2965,7 +2962,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2982,19 +2979,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3032,19 +3029,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3082,19 +3079,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3115,13 +3112,13 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3132,14 +3129,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3160,13 +3162,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3177,7 +3179,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3185,7 +3187,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3223,7 +3225,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3231,7 +3233,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3269,7 +3271,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3277,7 +3279,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3298,7 +3300,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3315,14 +3317,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3360,7 +3362,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3368,7 +3370,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3406,14 +3408,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3451,14 +3453,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3479,7 +3481,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3496,14 +3498,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3524,7 +3526,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3541,14 +3543,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3586,14 +3588,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3631,14 +3633,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3649,17 +3651,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3676,19 +3678,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3699,17 +3696,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
+          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,19 +3723,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3759,7 +3751,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
+          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,7 +3768,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
@@ -3788,7 +3780,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3818,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3851,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,7 +3868,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3888,7 +3880,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3901,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
+          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3918,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3951,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3981,14 +3973,14 @@
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4001,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,7 +4018,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
@@ -4038,7 +4030,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,7 +4051,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4088,7 +4080,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4101,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4118,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4159,7 +4151,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,19 +4168,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4204,18 +4196,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4226,15 +4218,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,12 +4246,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4272,19 +4268,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4300,12 +4296,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4346,18 +4342,18 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,15 +4364,19 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,7 +4552,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,19 +4598,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4626,18 +4622,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,15 +4690,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4786,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,19 +4832,15 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I85" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4882,19 +4878,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4915,7 +4907,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4924,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4957,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,15 +4974,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5011,13 +5007,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,15 +5024,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,19 +5074,15 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5102,18 +5098,18 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5124,19 +5120,15 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5157,7 +5149,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5174,7 +5166,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5186,7 +5178,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5207,7 +5199,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5224,7 +5216,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5236,7 +5228,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5257,7 +5249,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5274,7 +5266,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5286,7 +5278,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5324,7 +5316,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5336,7 +5328,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5357,7 +5349,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5374,19 +5366,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5424,7 +5416,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5436,7 +5428,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5457,7 +5449,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5474,19 +5466,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5507,7 +5499,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5524,7 +5516,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5536,7 +5528,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5557,7 +5549,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5574,7 +5566,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5586,7 +5578,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5607,7 +5599,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5624,7 +5616,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5636,7 +5628,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5652,12 +5644,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5674,19 +5666,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5702,12 +5694,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5724,19 +5716,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5752,12 +5744,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5774,19 +5766,15 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5802,12 +5790,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t>Considere usar o Bastion para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5824,19 +5812,15 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5857,7 +5841,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5874,19 +5858,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5907,7 +5891,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5924,19 +5908,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5957,7 +5941,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5974,19 +5958,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +5991,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,15 +6008,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6053,7 +6041,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6070,7 +6058,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6082,7 +6070,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6098,12 +6086,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,19 +6108,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6148,12 +6136,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,15 +6158,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6194,12 +6186,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6216,19 +6208,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,12 +6232,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6266,19 +6254,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,12 +6282,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6316,19 +6304,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,12 +6332,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,19 +6354,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6399,7 +6382,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6416,19 +6399,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6449,7 +6432,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6466,19 +6449,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6499,7 +6482,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6516,19 +6499,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6549,7 +6532,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6566,19 +6549,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6599,7 +6582,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6616,19 +6599,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6644,12 +6627,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6666,19 +6649,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,12 +6677,12 @@
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6716,19 +6699,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,12 +6727,12 @@
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6766,19 +6749,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,12 +6777,12 @@
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,19 +6799,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6849,7 +6832,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,19 +6849,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6899,7 +6882,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6916,7 +6899,7 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6928,7 +6911,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6949,7 +6932,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6971,14 +6954,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6999,7 +6982,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7021,14 +7004,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7044,12 +7027,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7066,14 +7049,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7089,12 +7077,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7099,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7139,12 +7127,12 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,19 +7149,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7189,12 +7177,12 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7209,17 +7197,21 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7240,7 +7232,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7257,19 +7249,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7290,7 +7277,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7307,19 +7294,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7340,7 +7327,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7357,7 +7344,7 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7369,7 +7356,7 @@
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7390,7 +7377,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7405,21 +7392,17 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H137" s="16" t="n"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7435,12 +7418,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7457,19 +7440,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7485,12 +7468,12 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7507,14 +7490,19 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7530,12 +7518,12 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7552,14 +7540,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7575,12 +7568,12 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7597,19 +7590,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7630,7 +7623,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7647,19 +7640,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7680,7 +7673,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,18 +7691,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7730,7 +7718,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7754,7 +7742,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7775,7 +7763,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,14 +7785,14 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7825,7 +7813,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7843,13 +7831,18 @@
       <c r="H146" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7870,7 +7863,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7888,13 +7881,18 @@
       <c r="H147" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7915,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7932,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7960,7 +7958,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7977,14 +7975,19 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7995,23 +7998,23 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8022,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8040,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8067,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8085,17 +8088,17 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8112,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8130,23 +8133,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8157,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8175,7 +8178,7 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
@@ -8185,13 +8188,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8202,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8220,7 +8223,7 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
@@ -8230,13 +8233,13 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8247,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8265,7 +8268,7 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
@@ -8275,13 +8278,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8292,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8337,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8365,13 +8368,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8382,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8410,7 +8413,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8427,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8455,13 +8458,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8472,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8500,13 +8503,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8517,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8545,13 +8548,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8562,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8590,13 +8593,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8607,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8635,7 +8638,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8652,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8675,18 +8678,18 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8697,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8720,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8742,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8765,18 +8768,18 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8787,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8810,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8832,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8860,13 +8863,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8884,7 +8887,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8905,13 +8908,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8922,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8974,7 +8977,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8995,7 +8998,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9019,7 +9022,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9064,7 +9067,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9085,13 +9088,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9102,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9130,7 +9133,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9147,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9170,18 +9173,18 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9192,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9215,12 +9218,12 @@
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9237,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9260,12 +9263,12 @@
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9282,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9305,12 +9308,12 @@
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9327,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9350,12 +9353,12 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9372,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9400,13 +9403,13 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9417,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9445,7 +9448,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9462,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9507,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9535,7 +9538,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9559,7 +9562,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9597,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9649,7 +9652,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9694,7 +9697,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9710,12 +9713,12 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9732,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9755,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9777,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9800,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9822,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9845,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9867,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9890,12 +9893,12 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9912,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9940,7 +9943,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9957,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9985,7 +9988,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10002,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10030,7 +10033,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10047,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10075,7 +10078,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10092,14 +10095,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10108,75 +10111,225 @@
       <c r="P196" s="26" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1" s="13">
-      <c r="A197" s="22" t="n"/>
-      <c r="B197" s="22" t="n"/>
-      <c r="C197" s="22" t="n"/>
+      <c r="A197" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C197" s="22" t="inlineStr">
+        <is>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+        </is>
+      </c>
       <c r="D197" s="22" t="n"/>
-      <c r="E197" s="22" t="n"/>
+      <c r="E197" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G197" s="22" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
-      <c r="L197" s="26" t="n"/>
+      <c r="L197" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M197" s="26" t="n"/>
       <c r="N197" s="26" t="n"/>
       <c r="O197" s="26" t="n"/>
       <c r="P197" s="26" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1" s="13">
-      <c r="A198" s="22" t="n"/>
-      <c r="B198" s="22" t="n"/>
-      <c r="C198" s="22" t="n"/>
+      <c r="A198" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B198" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C198" s="22" t="inlineStr">
+        <is>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+        </is>
+      </c>
       <c r="D198" s="22" t="n"/>
-      <c r="E198" s="22" t="n"/>
+      <c r="E198" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G198" s="22" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
-      <c r="L198" s="26" t="n"/>
+      <c r="L198" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M198" s="26" t="n"/>
       <c r="N198" s="26" t="n"/>
       <c r="O198" s="26" t="n"/>
       <c r="P198" s="26" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1" s="13">
-      <c r="A199" s="22" t="n"/>
-      <c r="B199" s="22" t="n"/>
-      <c r="C199" s="22" t="n"/>
+      <c r="A199" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B199" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C199" s="22" t="inlineStr">
+        <is>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+        </is>
+      </c>
       <c r="D199" s="22" t="n"/>
-      <c r="E199" s="22" t="n"/>
+      <c r="E199" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G199" s="22" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
-      <c r="L199" s="26" t="n"/>
+      <c r="L199" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M199" s="26" t="n"/>
       <c r="N199" s="26" t="n"/>
       <c r="O199" s="26" t="n"/>
       <c r="P199" s="26" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1" s="13">
-      <c r="A200" s="22" t="n"/>
-      <c r="B200" s="22" t="n"/>
-      <c r="C200" s="22" t="n"/>
+      <c r="A200" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B200" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C200" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
+        </is>
+      </c>
       <c r="D200" s="22" t="n"/>
-      <c r="E200" s="22" t="n"/>
+      <c r="E200" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G200" s="22" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
-      <c r="L200" s="26" t="n"/>
+      <c r="L200" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M200" s="26" t="n"/>
       <c r="N200" s="26" t="n"/>
       <c r="O200" s="26" t="n"/>
       <c r="P200" s="26" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1" s="13">
-      <c r="A201" s="22" t="n"/>
-      <c r="B201" s="22" t="n"/>
-      <c r="C201" s="22" t="n"/>
+      <c r="A201" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B201" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C201" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D201" s="22" t="n"/>
-      <c r="E201" s="22" t="n"/>
+      <c r="E201" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G201" s="22" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
-      <c r="L201" s="26" t="n"/>
+      <c r="L201" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M201" s="26" t="n"/>
       <c r="N201" s="26" t="n"/>
       <c r="O201" s="26" t="n"/>
@@ -11821,7 +11974,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12104,7 +12257,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -10275,7 +10275,7 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
@@ -10320,7 +10320,7 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS &amp; LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,19 +1168,15 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1201,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1218,19 +1214,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1251,13 +1247,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1268,19 +1264,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1301,13 +1297,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1318,19 +1314,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1351,13 +1347,13 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1368,19 +1364,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1401,7 +1397,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1418,19 +1414,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1451,13 +1447,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1468,19 +1464,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1501,13 +1497,13 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1518,19 +1514,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1568,19 +1564,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,7 +1597,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
+          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1618,19 +1614,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1668,19 +1664,19 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1723,14 +1719,14 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1751,7 +1747,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1768,19 +1764,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1801,7 +1797,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1818,19 +1814,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1868,19 +1864,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,17 +1887,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1918,19 +1914,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1968,19 +1964,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,7 +1997,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2018,19 +2014,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,7 +2047,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2080,7 +2076,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2130,7 +2126,7 @@
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
+          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2168,14 +2164,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2213,14 +2214,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,13 +2287,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,7 +2312,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2349,7 +2350,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2357,7 +2358,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,19 +2396,15 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I34" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2428,7 +2425,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2445,19 +2442,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2478,13 +2475,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2495,19 +2492,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2528,13 +2525,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2545,19 +2542,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2578,13 +2575,13 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2595,19 +2592,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2645,19 +2642,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2668,23 +2665,23 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2695,15 +2692,19 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2724,13 +2725,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,7 +2742,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2749,7 +2750,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2765,12 +2766,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2787,19 +2788,15 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2835,13 +2832,21 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="n"/>
-      <c r="I43" s="16" t="n"/>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2877,21 +2882,13 @@
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
-      <c r="H44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2941,7 +2938,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2962,7 +2959,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2979,19 +2976,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3029,19 +3026,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3062,7 +3059,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3079,19 +3076,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3112,7 +3109,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3129,19 +3126,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,13 +3159,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3179,15 +3176,19 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I50" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I50" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,13 +3209,13 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,7 +3226,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3233,7 +3234,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3254,7 +3255,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3271,7 +3272,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3279,7 +3280,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3317,14 +3318,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3362,7 +3363,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3370,7 +3371,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3408,14 +3409,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3453,14 +3454,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3498,14 +3499,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3543,14 +3544,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3588,14 +3589,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3633,14 +3634,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3678,14 +3679,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3723,14 +3724,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3741,17 +3742,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3768,19 +3769,15 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="n"/>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
+          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3818,7 +3815,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
@@ -3830,7 +3827,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3868,7 +3865,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3880,7 +3877,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3901,7 +3898,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3918,19 +3915,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3968,19 +3965,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4023,14 +4020,14 @@
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4051,7 +4048,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4080,7 +4077,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4118,7 +4115,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
@@ -4130,7 +4127,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4151,7 +4148,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4168,7 +4165,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4180,7 +4177,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4201,13 +4198,13 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4218,19 +4215,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4251,13 +4248,13 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4273,14 +4270,14 @@
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4296,12 +4293,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4318,15 +4315,19 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,7 +4348,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4364,19 +4365,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4392,12 +4389,12 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,15 +4411,19 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4444,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4461,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4469,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4490,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4507,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4515,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,13 +4536,13 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4553,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4561,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,13 +4582,13 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4599,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4607,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,13 +4628,13 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,7 +4645,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4653,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4668,18 +4669,18 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,19 +4691,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4720,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4737,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4787,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4795,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,7 +4833,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4840,7 +4841,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4878,7 +4879,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4886,7 +4887,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4907,7 +4908,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4924,19 +4925,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4974,19 +4971,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5024,19 +5021,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,15 +5071,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5103,13 +5104,13 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5120,7 +5121,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5128,7 +5129,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5144,18 +5145,18 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,19 +5167,15 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5216,7 +5213,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5228,7 +5225,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5249,7 +5246,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5275,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5299,7 +5296,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5316,7 +5313,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5328,7 +5325,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5349,7 +5346,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5366,7 +5363,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5378,7 +5375,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5416,7 +5413,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5428,7 +5425,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5449,7 +5446,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5466,19 +5463,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5499,7 +5496,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5516,19 +5513,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5566,7 +5563,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5578,7 +5575,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5599,7 +5596,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5616,7 +5613,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5628,7 +5625,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5649,7 +5646,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5666,7 +5663,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
@@ -5678,7 +5675,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5699,7 +5696,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5716,7 +5713,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5728,7 +5725,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5749,7 +5746,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5766,15 +5763,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5795,7 +5796,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Considere usar o Bastion para se conectar com segurança à sua rede.</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5812,7 +5813,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5820,7 +5821,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5836,12 +5837,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Considere usar o Bastion para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5858,19 +5859,15 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5891,7 +5888,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5920,7 +5917,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5941,7 +5938,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5970,7 +5967,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5991,7 +5988,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6020,7 +6017,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6058,19 +6055,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6108,7 +6105,7 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6117,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6141,7 +6138,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,7 +6167,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6191,7 +6188,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6211,12 +6208,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6237,7 +6238,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6254,19 +6255,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6282,12 +6279,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6304,19 +6301,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6337,7 +6334,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6354,14 +6351,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6377,12 +6379,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6399,19 +6401,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6432,7 +6429,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6449,7 +6446,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6461,7 +6458,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,7 +6508,7 @@
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6532,7 +6529,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,7 +6558,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6582,7 +6579,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6604,14 +6601,14 @@
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6632,7 +6629,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6649,7 +6646,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
@@ -6661,7 +6658,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6682,7 +6679,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6699,7 +6696,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
@@ -6711,7 +6708,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6732,7 +6729,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6754,14 +6751,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6782,7 +6779,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6799,19 +6796,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6827,12 +6824,12 @@
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6849,19 +6846,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6882,7 +6879,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6904,14 +6901,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6932,7 +6929,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6949,19 +6946,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6982,7 +6979,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7004,14 +7001,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7032,7 +7029,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7054,14 +7051,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,7 +7108,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7132,7 +7129,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,7 +7158,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7182,7 +7179,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7208,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7227,12 +7224,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7249,14 +7246,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7277,7 +7279,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7294,19 +7296,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7327,7 +7324,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7344,19 +7341,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7377,7 +7374,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7392,7 +7389,11 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7402,7 +7403,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7438,11 +7439,7 @@
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H138" s="16" t="n"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7452,7 +7449,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7473,7 +7470,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7495,14 +7492,14 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7523,7 +7520,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7545,14 +7542,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7573,7 +7570,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7595,14 +7592,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7618,12 +7615,12 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7640,19 +7637,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7673,7 +7670,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,14 +7687,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7718,7 +7720,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7742,7 +7744,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7763,7 +7765,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7781,18 +7783,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7813,7 +7810,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7835,14 +7832,14 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7863,7 +7860,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7892,7 +7889,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7910,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7931,13 +7928,18 @@
       <c r="H148" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7958,7 +7960,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7976,18 +7978,13 @@
       <c r="H149" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8005,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8026,13 +8023,18 @@
       <c r="H150" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8053,7 +8055,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8077,7 +8079,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,7 +8100,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8115,14 +8117,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,7 +8145,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8160,14 +8162,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8178,23 +8180,23 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8205,14 +8207,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8223,23 +8225,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t xml:space="preserve">Topologia e conectividade de rede </t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Se você estiver implantando pelo menos duas VMs que executam o AD DS como controladores de domínio, adicione-as a diferentes zonas de disponibilidade. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8250,14 +8252,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,13 +8280,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8295,14 +8297,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8313,7 +8315,7 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
@@ -8323,13 +8325,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8340,14 +8342,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8358,7 +8360,7 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
@@ -8368,7 +8370,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8385,14 +8387,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8415,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8432,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,13 +8460,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8475,14 +8477,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,7 +8505,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8520,14 +8522,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8565,14 +8567,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8593,7 +8595,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8610,14 +8612,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8640,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8657,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,13 +8685,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8700,14 +8702,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8745,14 +8747,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,13 +8775,13 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8790,14 +8792,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,7 +8820,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8835,14 +8837,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,18 +8860,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8880,14 +8882,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,12 +8905,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8925,14 +8927,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,13 +8955,13 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
       <c r="E171" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8977,7 +8979,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +9000,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9017,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9045,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9067,7 +9069,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9088,13 +9090,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9107,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,7 +9135,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9157,7 +9159,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,13 +9180,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9195,14 +9197,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9225,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9249,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9270,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9285,14 +9287,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9330,14 +9332,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9360,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9375,14 +9377,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,18 +9400,18 @@
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9420,14 +9422,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,12 +9445,12 @@
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9467,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,13 +9495,13 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9510,14 +9512,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9540,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9557,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9585,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9609,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9652,7 +9654,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9675,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9697,7 +9699,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9720,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9737,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9765,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9789,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9827,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9855,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9877,7 +9879,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9900,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9917,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,12 +9940,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9962,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,12 +9985,12 @@
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10005,14 +10007,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10033,7 +10035,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10050,14 +10052,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10078,7 +10080,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10095,14 +10097,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="C197" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D197" s="22" t="n"/>
@@ -10140,14 +10142,14 @@
       <c r="G197" s="22" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
       <c r="L197" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="26" t="n"/>
@@ -10168,7 +10170,7 @@
       </c>
       <c r="C198" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="22" t="n"/>
@@ -10185,14 +10187,14 @@
       <c r="G198" s="22" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
       <c r="L198" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="26" t="n"/>
@@ -10213,7 +10215,7 @@
       </c>
       <c r="C199" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D199" s="22" t="n"/>
@@ -10230,14 +10232,14 @@
       <c r="G199" s="22" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
       <c r="L199" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="26" t="n"/>
@@ -10258,7 +10260,7 @@
       </c>
       <c r="C200" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D200" s="22" t="n"/>
@@ -10275,14 +10277,14 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
       <c r="L200" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M200" s="26" t="n"/>
@@ -10303,7 +10305,7 @@
       </c>
       <c r="C201" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D201" s="22" t="n"/>
@@ -10320,14 +10322,14 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
       <c r="L201" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M201" s="26" t="n"/>
@@ -10336,75 +10338,225 @@
       <c r="P201" s="26" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1" s="13">
-      <c r="A202" s="22" t="n"/>
-      <c r="B202" s="22" t="n"/>
-      <c r="C202" s="22" t="n"/>
+      <c r="A202" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B202" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C202" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
+        </is>
+      </c>
       <c r="D202" s="22" t="n"/>
-      <c r="E202" s="22" t="n"/>
+      <c r="E202" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G202" s="22" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J202" s="23" t="n"/>
       <c r="K202" s="23" t="n"/>
-      <c r="L202" s="26" t="n"/>
+      <c r="L202" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M202" s="26" t="n"/>
       <c r="N202" s="26" t="n"/>
       <c r="O202" s="26" t="n"/>
       <c r="P202" s="26" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1" s="13">
-      <c r="A203" s="22" t="n"/>
-      <c r="B203" s="22" t="n"/>
-      <c r="C203" s="22" t="n"/>
+      <c r="A203" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B203" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C203" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D203" s="22" t="n"/>
-      <c r="E203" s="22" t="n"/>
+      <c r="E203" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G203" s="22" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J203" s="23" t="n"/>
       <c r="K203" s="23" t="n"/>
-      <c r="L203" s="26" t="n"/>
+      <c r="L203" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M203" s="26" t="n"/>
       <c r="N203" s="26" t="n"/>
       <c r="O203" s="26" t="n"/>
       <c r="P203" s="26" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1" s="13">
-      <c r="A204" s="22" t="n"/>
-      <c r="B204" s="22" t="n"/>
-      <c r="C204" s="22" t="n"/>
+      <c r="A204" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+        </is>
+      </c>
+      <c r="B204" s="22" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C204" s="22" t="inlineStr">
+        <is>
+          <t>É recomendável seguir os Padrões de Nomenclatura de Práticas Recomendadas da Microsoft</t>
+        </is>
+      </c>
       <c r="D204" s="22" t="n"/>
-      <c r="E204" s="22" t="n"/>
+      <c r="E204" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G204" s="22" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J204" s="23" t="n"/>
       <c r="K204" s="23" t="n"/>
-      <c r="L204" s="26" t="n"/>
+      <c r="L204" s="26" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M204" s="26" t="n"/>
       <c r="N204" s="26" t="n"/>
       <c r="O204" s="26" t="n"/>
       <c r="P204" s="26" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1" s="13">
-      <c r="A205" s="22" t="n"/>
-      <c r="B205" s="22" t="n"/>
-      <c r="C205" s="22" t="n"/>
+      <c r="A205" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+        </is>
+      </c>
+      <c r="B205" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C205" s="22" t="inlineStr">
+        <is>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+        </is>
+      </c>
       <c r="D205" s="22" t="n"/>
-      <c r="E205" s="22" t="n"/>
+      <c r="E205" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G205" s="22" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J205" s="23" t="n"/>
       <c r="K205" s="23" t="n"/>
-      <c r="L205" s="26" t="n"/>
+      <c r="L205" s="26" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M205" s="26" t="n"/>
       <c r="N205" s="26" t="n"/>
       <c r="O205" s="26" t="n"/>
       <c r="P205" s="26" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1" s="13">
-      <c r="A206" s="22" t="n"/>
-      <c r="B206" s="22" t="n"/>
-      <c r="C206" s="22" t="n"/>
+      <c r="A206" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+        </is>
+      </c>
+      <c r="B206" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C206" s="22" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível de contêiner para a conta de armazenamento para recuperar um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D206" s="22" t="n"/>
-      <c r="E206" s="22" t="n"/>
+      <c r="E206" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G206" s="22" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J206" s="23" t="n"/>
       <c r="K206" s="23" t="n"/>
-      <c r="L206" s="26" t="n"/>
+      <c r="L206" s="26" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M206" s="26" t="n"/>
       <c r="N206" s="26" t="n"/>
       <c r="O206" s="26" t="n"/>
@@ -11974,7 +12126,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Backup e recuperação de desastres</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS &amp; LRS), pois a configuração padrão é GRS</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS &amp; LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,19 +1213,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1246,7 +1242,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1263,19 +1259,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1296,13 +1292,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,19 +1309,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1346,13 +1342,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1363,19 +1359,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1396,13 +1392,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1413,19 +1409,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1463,19 +1459,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1496,13 +1492,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1513,19 +1509,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1546,13 +1542,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,19 +1559,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1613,19 +1609,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1646,7 +1642,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
+          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1663,19 +1659,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1696,7 +1692,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1713,19 +1709,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1746,7 +1742,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1768,14 +1764,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1796,7 +1792,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1813,19 +1809,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1863,19 +1859,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1896,7 +1892,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1913,19 +1909,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1936,17 +1932,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1963,19 +1959,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2013,19 +2009,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2063,19 +2059,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2096,7 +2092,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2125,7 +2121,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2175,7 +2171,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,7 +2192,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
+          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2213,14 +2209,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2303,7 +2304,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2311,7 +2312,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2357,7 +2358,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,7 +2396,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2403,7 +2404,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2424,13 +2425,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2441,19 +2442,15 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2474,7 +2471,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2491,19 +2488,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2524,13 +2521,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2541,19 +2538,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2574,13 +2571,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2591,19 +2588,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2624,13 +2621,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2641,19 +2638,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2674,7 +2671,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2691,19 +2688,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2714,23 +2711,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,15 +2738,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2765,18 +2766,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2787,7 +2788,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2795,7 +2796,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2811,12 +2812,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2833,19 +2834,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2881,13 +2878,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2923,21 +2928,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2987,7 +2983,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3008,7 +3004,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3025,19 +3021,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3058,7 +3054,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3075,19 +3071,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3108,7 +3104,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3125,19 +3121,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3158,7 +3154,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3175,19 +3171,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3208,13 +3204,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,15 +3221,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,19 +3814,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3847,7 +3843,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
+          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3864,7 +3860,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
@@ -3876,7 +3872,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3947,10 +3943,14 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Gateway de Aplicativo e o WAF na assinatura de conectividade pode ser OK se ele for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3964,19 +3964,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,19 +4314,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4342,18 +4338,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4360,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4372,7 +4368,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4388,18 +4384,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,19 +4406,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4438,18 +4430,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4452,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4468,7 +4460,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4484,18 +4476,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4498,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4514,7 +4506,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4530,18 +4522,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4544,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4560,7 +4552,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4576,18 +4568,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4590,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4606,7 +4598,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4622,18 +4614,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,15 +4636,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4668,18 +4664,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem a máxima flexibilidade.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,15 +4686,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4719,13 +4719,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,19 +4736,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4769,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4786,7 +4782,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4794,7 +4790,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4811,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,7 +4828,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4840,7 +4836,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as redes virtuais do hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4878,15 +4874,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4924,15 +4924,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4957,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,19 +4974,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +5003,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,19 +5020,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5048,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5070,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5098,15 +5094,19 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="n"/>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e pendentes de caminho AS para influenciar o tráfego do Azure para o local e a gama completa de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5120,15 +5120,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5144,18 +5148,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,15 +5170,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5195,7 +5203,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5212,7 +5220,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5224,7 +5232,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5262,7 +5270,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5282,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5312,7 +5320,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5324,7 +5332,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,7 +5353,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5362,19 +5370,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5403,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere o uso de circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,7 +5420,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5424,7 +5432,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5453,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5470,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5482,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5520,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,7 +5553,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5562,7 +5570,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5582,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5603,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,7 +5620,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5624,7 +5632,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,7 +5653,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5662,19 +5670,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5699,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,19 +5716,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Certifique-se de que não sejam utilizados espaços de endereço IP sobrepostos entre regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,15 +5812,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5836,18 +5840,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastion para se conectar com segurança à sua rede.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5862,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,13 +5895,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5912,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5954,19 +5962,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5995,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere o uso do Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6004,19 +6012,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6045,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6062,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6091,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,7 +6108,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6116,7 +6120,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6132,18 +6136,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6158,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6182,12 +6186,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6204,19 +6208,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6232,18 +6236,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6254,15 +6258,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,12 +6286,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6300,19 +6308,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6328,18 +6336,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6350,19 +6358,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6378,18 +6386,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>A implantação de WAFs e outros proxies reversos é necessária para conexões HTTP/S de entrada, implante-as em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6400,14 +6408,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6428,13 +6441,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6445,7 +6458,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6457,7 +6470,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6478,13 +6491,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte nas regras do aplicativo.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6495,19 +6508,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6528,13 +6536,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Firewall Premium do Azure para obter segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6545,19 +6553,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6578,13 +6582,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para proteção adicional.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6595,19 +6599,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,13 +6628,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para proteção adicional.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6645,19 +6645,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,18 +6669,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está quebrada, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6695,19 +6691,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,12 +6719,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6745,7 +6741,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6757,7 +6753,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6773,12 +6769,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6795,19 +6791,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6823,12 +6819,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6845,19 +6841,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6878,7 +6874,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre os FQDNs de saída em um NVA para impedir a exfiltração de dados.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6895,19 +6891,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6923,12 +6919,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6945,19 +6941,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6973,12 +6964,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6995,19 +6986,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7023,12 +7014,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7045,19 +7036,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7073,12 +7064,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7093,21 +7084,17 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7123,12 +7110,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7145,19 +7132,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7173,12 +7160,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7195,19 +7182,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7223,12 +7210,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7245,19 +7232,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7273,12 +7260,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7295,14 +7282,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7318,18 +7305,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7340,19 +7327,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7368,18 +7355,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7390,19 +7377,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7418,12 +7400,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7438,17 +7420,21 @@
         </is>
       </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7464,12 +7450,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7486,19 +7472,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7514,12 +7495,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7536,19 +7517,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7564,12 +7540,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7586,19 +7562,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7609,23 +7580,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t xml:space="preserve">Topologia e conectividade de rede </t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Se você estiver implantando pelo menos duas VMs que executam o AD DS como controladores de domínio, adicione-as a diferentes zonas de disponibilidade. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7636,19 +7607,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7659,23 +7625,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7686,19 +7652,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7709,17 +7670,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7736,14 +7697,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7754,23 +7715,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7781,14 +7742,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7799,17 +7760,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7826,19 +7787,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7849,23 +7805,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7876,19 +7832,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7899,23 +7850,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7926,19 +7877,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7949,23 +7895,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7976,14 +7922,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7994,23 +7940,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8021,19 +7967,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -8044,23 +7985,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8071,14 +8012,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8089,17 +8030,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8116,14 +8057,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8134,17 +8075,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8161,14 +8102,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8179,17 +8120,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8206,14 +8147,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8224,23 +8165,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Topologia e conectividade de rede </t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs que executam o AD DS como controladores de domínio, adicione-as a diferentes zonas de disponibilidade. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8251,14 +8192,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8269,23 +8210,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8296,14 +8237,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8314,23 +8255,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8341,14 +8282,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8359,17 +8300,17 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8386,14 +8327,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8409,18 +8350,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8372,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8454,12 +8395,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8476,14 +8417,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8499,18 +8440,18 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8521,14 +8462,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8544,18 +8485,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8507,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8589,18 +8530,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8552,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8634,18 +8575,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8597,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8679,18 +8620,18 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8642,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8724,12 +8665,12 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8746,14 +8687,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8769,12 +8710,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8791,14 +8732,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8814,12 +8755,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8836,14 +8777,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8859,18 +8800,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8881,14 +8822,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8904,12 +8845,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8926,14 +8867,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8949,18 +8890,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8971,14 +8912,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8994,12 +8935,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -9016,14 +8957,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -9039,12 +8980,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -9061,14 +9002,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9084,12 +9025,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9106,14 +9047,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9129,12 +9070,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9151,14 +9092,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9174,18 +9115,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9137,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9219,12 +9160,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9241,14 +9182,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9264,12 +9205,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9286,14 +9227,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9309,12 +9250,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9331,14 +9272,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9354,12 +9295,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9376,14 +9317,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9399,12 +9340,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9421,14 +9362,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9444,12 +9385,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9466,14 +9407,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9489,18 +9430,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9511,14 +9452,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9534,12 +9475,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9556,14 +9497,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9579,12 +9520,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9601,14 +9542,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9624,12 +9565,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9646,14 +9587,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9669,12 +9610,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9691,14 +9632,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9714,12 +9655,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9736,14 +9677,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9759,12 +9700,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9781,14 +9722,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9799,23 +9740,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>É recomendável seguir os Padrões de Nomenclatura de Práticas Recomendadas da Microsoft</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9826,14 +9767,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9844,23 +9785,23 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9871,14 +9812,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9889,23 +9830,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Habilite a exclusão flexível de contêiner para a conta de armazenamento para recuperar um contêiner excluído e seu conteúdo.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9916,14 +9857,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9932,630 +9873,210 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B193" s="21" t="inlineStr">
-        <is>
-          <t>Segredos</t>
-        </is>
-      </c>
-      <c r="C193" s="21" t="inlineStr">
-        <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
-        </is>
-      </c>
+      <c r="A193" s="21" t="n"/>
+      <c r="B193" s="21" t="n"/>
+      <c r="C193" s="21" t="n"/>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E193" s="21" t="n"/>
       <c r="G193" s="21" t="n"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L193" s="25" t="n"/>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B194" s="21" t="inlineStr">
-        <is>
-          <t>Segredos</t>
-        </is>
-      </c>
-      <c r="C194" s="21" t="inlineStr">
-        <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
-        </is>
-      </c>
+      <c r="A194" s="21" t="n"/>
+      <c r="B194" s="21" t="n"/>
+      <c r="C194" s="21" t="n"/>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E194" s="21" t="n"/>
       <c r="G194" s="21" t="n"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L194" s="25" t="n"/>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B195" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C195" s="21" t="inlineStr">
-        <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
-        </is>
-      </c>
+      <c r="A195" s="21" t="n"/>
+      <c r="B195" s="21" t="n"/>
+      <c r="C195" s="21" t="n"/>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E195" s="21" t="n"/>
       <c r="G195" s="21" t="n"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L195" s="25" t="n"/>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B196" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C196" s="21" t="inlineStr">
-        <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
-        </is>
-      </c>
+      <c r="A196" s="21" t="n"/>
+      <c r="B196" s="21" t="n"/>
+      <c r="C196" s="21" t="n"/>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E196" s="21" t="n"/>
       <c r="G196" s="21" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L196" s="25" t="n"/>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B197" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C197" s="21" t="inlineStr">
-        <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
-        </is>
-      </c>
+      <c r="A197" s="21" t="n"/>
+      <c r="B197" s="21" t="n"/>
+      <c r="C197" s="21" t="n"/>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E197" s="21" t="n"/>
       <c r="G197" s="21" t="n"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L197" s="25" t="n"/>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B198" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C198" s="21" t="inlineStr">
-        <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A198" s="21" t="n"/>
+      <c r="B198" s="21" t="n"/>
+      <c r="C198" s="21" t="n"/>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E198" s="21" t="n"/>
       <c r="G198" s="21" t="n"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L198" s="25" t="n"/>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B199" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C199" s="21" t="inlineStr">
-        <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
-        </is>
-      </c>
+      <c r="A199" s="21" t="n"/>
+      <c r="B199" s="21" t="n"/>
+      <c r="C199" s="21" t="n"/>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E199" s="21" t="n"/>
       <c r="G199" s="21" t="n"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L199" s="25" t="n"/>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B200" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C200" s="21" t="inlineStr">
-        <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
-        </is>
-      </c>
+      <c r="A200" s="21" t="n"/>
+      <c r="B200" s="21" t="n"/>
+      <c r="C200" s="21" t="n"/>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E200" s="21" t="n"/>
       <c r="G200" s="21" t="n"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="inlineStr">
-        <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
-        </is>
-      </c>
+      <c r="L200" s="25" t="n"/>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B201" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C201" s="21" t="inlineStr">
-        <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
-        </is>
-      </c>
+      <c r="A201" s="21" t="n"/>
+      <c r="B201" s="21" t="n"/>
+      <c r="C201" s="21" t="n"/>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E201" s="21" t="n"/>
       <c r="G201" s="21" t="n"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
-        </is>
-      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="inlineStr">
-        <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
-        </is>
-      </c>
+      <c r="L201" s="25" t="n"/>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B202" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C202" s="21" t="inlineStr">
-        <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
-        </is>
-      </c>
+      <c r="A202" s="21" t="n"/>
+      <c r="B202" s="21" t="n"/>
+      <c r="C202" s="21" t="n"/>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E202" s="21" t="n"/>
       <c r="G202" s="21" t="n"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L202" s="25" t="n"/>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Conformidade</t>
-        </is>
-      </c>
-      <c r="B203" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C203" s="21" t="inlineStr">
-        <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
-        </is>
-      </c>
+      <c r="A203" s="21" t="n"/>
+      <c r="B203" s="21" t="n"/>
+      <c r="C203" s="21" t="n"/>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E203" s="21" t="n"/>
       <c r="G203" s="21" t="n"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L203" s="25" t="n"/>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
-        </is>
-      </c>
-      <c r="B204" s="21" t="inlineStr">
-        <is>
-          <t>Governança</t>
-        </is>
-      </c>
-      <c r="C204" s="21" t="inlineStr">
-        <is>
-          <t>É recomendável seguir os Padrões de Nomenclatura de Práticas Recomendadas da Microsoft</t>
-        </is>
-      </c>
+      <c r="A204" s="21" t="n"/>
+      <c r="B204" s="21" t="n"/>
+      <c r="C204" s="21" t="n"/>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E204" s="21" t="n"/>
       <c r="G204" s="21" t="n"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="inlineStr">
-        <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
-        </is>
-      </c>
+      <c r="L204" s="25" t="n"/>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
-        </is>
-      </c>
-      <c r="B205" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C205" s="21" t="inlineStr">
-        <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
-        </is>
-      </c>
+      <c r="A205" s="21" t="n"/>
+      <c r="B205" s="21" t="n"/>
+      <c r="C205" s="21" t="n"/>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E205" s="21" t="n"/>
       <c r="G205" s="21" t="n"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L205" s="25" t="n"/>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
-        </is>
-      </c>
-      <c r="B206" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C206" s="21" t="inlineStr">
-        <is>
-          <t>Habilite a exclusão flexível de contêiner para a conta de armazenamento para recuperar um contêiner excluído e seu conteúdo.</t>
-        </is>
-      </c>
+      <c r="A206" s="21" t="n"/>
+      <c r="B206" s="21" t="n"/>
+      <c r="C206" s="21" t="n"/>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E206" s="21" t="n"/>
       <c r="G206" s="21" t="n"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L206" s="25" t="n"/>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
@@ -12089,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1459,7 +1459,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -8580,10 +8580,14 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="inlineStr">
+        <is>
+          <t>Atribuir a função Colaborador da Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar as políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com adesão aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E164" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8597,7 +8601,7 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
@@ -8763,7 +8767,11 @@
           <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
-      <c r="D168" s="21" t="n"/>
+      <c r="D168" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Média</t>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS &amp; LRS), pois a configuração padrão é GRS</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Implementar para acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
+          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
+          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
+          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com no máximo três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
+          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
+          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas de espaço de trabalho e automação vinculadas do Log Analytics</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3833,7 +3833,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3883,7 +3883,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
+          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3933,7 +3933,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3943,14 +3943,10 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Gateway de Aplicativo e o WAF na assinatura de conectividade pode ser OK se ele for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3964,7 +3960,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
@@ -3976,7 +3972,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3987,7 +3983,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3997,10 +3993,14 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4037,7 +4037,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4087,7 +4087,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4137,7 +4137,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4187,7 +4187,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4237,7 +4237,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4287,7 +4287,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo do Azure AD para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,15 +4314,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4333,7 +4337,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -4343,7 +4347,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4360,7 +4364,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4368,7 +4372,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4379,7 +4383,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -4389,7 +4393,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4406,7 +4410,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4414,7 +4418,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4425,7 +4429,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4435,13 +4439,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4452,7 +4456,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4460,7 +4464,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4471,7 +4475,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4481,13 +4485,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4498,7 +4502,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4506,7 +4510,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4517,7 +4521,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4527,13 +4531,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use as sondas de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4544,7 +4548,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4552,7 +4556,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4563,23 +4567,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4590,7 +4594,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4609,23 +4613,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4636,19 +4640,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4659,17 +4659,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem a máxima flexibilidade.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4686,19 +4686,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4709,23 +4705,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t xml:space="preserve">Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,15 +4732,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4755,17 +4755,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4782,15 +4782,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4801,23 +4805,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4828,7 +4832,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4836,7 +4840,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4847,17 +4851,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as redes virtuais do hub para conectar as regiões umas às outras. </t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4874,19 +4878,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4897,23 +4897,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,19 +4924,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4947,23 +4943,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4974,7 +4970,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4982,7 +4978,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4993,23 +4989,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras. </t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,15 +5016,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5039,17 +5039,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5089,24 +5089,20 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e pendentes de caminho AS para influenciar o tráfego do Azure para o local e a gama completa de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5120,19 +5116,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5143,23 +5135,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5170,19 +5162,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5193,7 +5181,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5203,7 +5191,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5220,7 +5208,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5232,7 +5220,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5243,7 +5231,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5253,10 +5241,14 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5270,7 +5262,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5282,7 +5274,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5293,7 +5285,7 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
@@ -5303,7 +5295,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5320,7 +5312,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5332,7 +5324,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5343,7 +5335,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
@@ -5353,7 +5345,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5370,19 +5362,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5393,7 +5385,7 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
@@ -5403,13 +5395,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere o uso de circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5420,7 +5412,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5432,7 +5424,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5443,7 +5435,7 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
@@ -5453,7 +5445,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5470,7 +5462,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5482,7 +5474,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5493,7 +5485,7 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
@@ -5503,7 +5495,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5520,19 +5512,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5543,7 +5535,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
@@ -5553,13 +5545,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5570,7 +5562,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5582,7 +5574,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5593,7 +5585,7 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
@@ -5603,7 +5595,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5620,7 +5612,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5632,7 +5624,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5643,7 +5635,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
@@ -5653,7 +5645,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade / recuperação de desastres</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5670,15 +5662,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5689,7 +5685,7 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
@@ -5699,7 +5695,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5716,15 +5712,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5735,23 +5735,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que não sejam utilizados espaços de endereço IP sobrepostos entre regiões do Azure e locais locais</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5785,23 +5785,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,19 +5812,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5835,17 +5831,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5862,19 +5858,15 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5885,7 +5877,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
@@ -5895,7 +5887,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5912,19 +5904,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5935,7 +5927,7 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
@@ -5945,13 +5937,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5962,19 +5954,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5985,7 +5977,7 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
@@ -5995,13 +5987,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere o uso do Resolvedor Privado de DNS do Azure.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6012,19 +6004,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6035,7 +6027,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
@@ -6045,13 +6037,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6062,15 +6054,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6081,7 +6077,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
@@ -6091,13 +6087,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6104,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6116,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6131,23 +6127,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6158,19 +6154,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6181,23 +6177,23 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6208,19 +6204,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6231,23 +6223,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6258,19 +6250,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6281,7 +6273,7 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
@@ -6291,7 +6283,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,19 +6300,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6331,7 +6318,7 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
@@ -6341,13 +6328,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6358,19 +6345,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6381,7 +6363,7 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
@@ -6391,7 +6373,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>A implantação de WAFs e outros proxies reversos é necessária para conexões HTTP/S de entrada, implante-as em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,19 +6390,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6431,7 +6413,7 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
@@ -6441,13 +6423,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6458,7 +6440,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6470,7 +6452,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6481,7 +6463,7 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
@@ -6491,13 +6473,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte nas regras do aplicativo.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6508,14 +6490,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6526,7 +6513,7 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
@@ -6536,13 +6523,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall Premium do Azure para obter segurança e proteção adicionais.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6553,15 +6540,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6572,7 +6563,7 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
@@ -6582,13 +6573,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para proteção adicional.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6599,15 +6590,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6618,7 +6613,7 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
@@ -6628,7 +6623,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para proteção adicional.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6645,15 +6640,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6664,17 +6663,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está quebrada, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6691,19 +6690,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6714,23 +6713,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6741,19 +6740,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6764,23 +6759,23 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6791,19 +6786,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6814,23 +6805,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6841,19 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6864,23 +6850,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre os FQDNs de saída em um NVA para impedir a exfiltração de dados.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6891,19 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6914,23 +6895,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada NSG usando a etiqueta de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6941,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6959,23 +6940,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6986,19 +6967,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7009,17 +6990,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7036,19 +7017,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7059,17 +7040,17 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7084,17 +7065,21 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7105,17 +7090,17 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7132,19 +7117,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7155,17 +7140,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7182,19 +7167,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7205,23 +7190,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7232,19 +7217,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7255,23 +7235,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7282,14 +7262,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7300,23 +7280,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7327,19 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7350,23 +7325,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7377,14 +7352,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7395,17 +7375,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7422,19 +7402,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7445,17 +7425,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7470,16 +7450,17 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+      <c r="H139" s="15" t="n"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7490,17 +7471,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7517,14 +7498,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7535,17 +7521,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7562,14 +7548,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7580,23 +7571,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Topologia e conectividade de rede </t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs que executam o AD DS como controladores de domínio, adicione-as a diferentes zonas de disponibilidade. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7607,14 +7598,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7625,23 +7621,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7652,14 +7648,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7670,23 +7666,23 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7697,14 +7693,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7715,23 +7711,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7742,14 +7738,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7760,17 +7761,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7787,14 +7788,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7805,23 +7806,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7832,14 +7833,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7850,23 +7851,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7877,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7895,23 +7896,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7922,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7940,23 +7941,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7967,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7985,17 +7986,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8012,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8030,7 +8031,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8040,13 +8041,13 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8057,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8075,7 +8076,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8085,7 +8086,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8102,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8120,7 +8121,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8130,13 +8131,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8147,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8165,7 +8166,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8175,13 +8176,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8192,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8210,7 +8211,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8220,13 +8221,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8237,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8255,17 +8256,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8282,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8300,23 +8301,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8327,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8345,23 +8346,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8372,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8390,23 +8391,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8417,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8435,17 +8436,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8462,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8480,23 +8481,23 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível de assinatura/grupo de gerenciamento</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8507,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8525,17 +8526,17 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8552,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8570,27 +8571,23 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="inlineStr">
-        <is>
-          <t>Atribuir a função Colaborador da Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar as políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com adesão aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8601,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8619,17 +8616,17 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8646,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8664,7 +8661,7 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
@@ -8674,13 +8671,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8691,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8709,7 +8706,7 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
@@ -8719,7 +8716,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8736,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8754,7 +8751,7 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
@@ -8764,14 +8761,10 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D168" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+        </is>
+      </c>
+      <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -8785,14 +8778,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8803,23 +8796,23 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8830,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8848,17 +8841,17 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,14 +8868,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8893,23 +8886,23 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8920,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8938,17 +8931,17 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,14 +8958,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8983,20 +8976,24 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E173" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9010,14 +9007,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9028,17 +9025,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9055,14 +9052,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9073,17 +9070,17 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9100,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9118,17 +9115,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9145,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9163,20 +9160,24 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9190,14 +9191,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9208,7 +9209,7 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
@@ -9218,13 +9219,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9235,14 +9236,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9253,7 +9254,7 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
@@ -9263,7 +9264,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9280,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9298,7 +9299,7 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
@@ -9308,7 +9309,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9332,7 +9333,7 @@
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9343,17 +9344,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9370,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9388,17 +9389,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9415,14 +9416,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9433,17 +9434,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9460,14 +9461,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9478,17 +9479,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9505,14 +9506,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9523,17 +9524,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9550,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9568,17 +9569,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9595,14 +9596,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9613,17 +9614,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9640,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9658,17 +9659,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9685,14 +9686,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9703,17 +9704,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9730,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9748,23 +9749,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>É recomendável seguir os Padrões de Nomenclatura de Práticas Recomendadas da Microsoft</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9775,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9793,7 +9794,7 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
@@ -9803,13 +9804,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9820,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9838,7 +9839,7 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Conformidade </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
@@ -9848,13 +9849,13 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível de contêiner para a conta de armazenamento para recuperar um contêiner excluído e seu conteúdo.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9865,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9881,135 +9882,405 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="n"/>
-      <c r="B193" s="21" t="n"/>
-      <c r="C193" s="21" t="n"/>
+      <c r="A193" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C193" s="21" t="inlineStr">
+        <is>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="n"/>
+      <c r="E193" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G193" s="21" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="n"/>
+      <c r="L193" s="25" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="n"/>
-      <c r="B194" s="21" t="n"/>
-      <c r="C194" s="21" t="n"/>
+      <c r="A194" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B194" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C194" s="21" t="inlineStr">
+        <is>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+        </is>
+      </c>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="n"/>
+      <c r="E194" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G194" s="21" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="n"/>
+      <c r="L194" s="25" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="n"/>
-      <c r="B195" s="21" t="n"/>
-      <c r="C195" s="21" t="n"/>
+      <c r="A195" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B195" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C195" s="21" t="inlineStr">
+        <is>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+        </is>
+      </c>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="n"/>
+      <c r="E195" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G195" s="21" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="n"/>
+      <c r="L195" s="25" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="n"/>
-      <c r="B196" s="21" t="n"/>
-      <c r="C196" s="21" t="n"/>
+      <c r="A196" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C196" s="21" t="inlineStr">
+        <is>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+        </is>
+      </c>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="n"/>
+      <c r="E196" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G196" s="21" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="n"/>
+      <c r="L196" s="25" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="n"/>
-      <c r="B197" s="21" t="n"/>
-      <c r="C197" s="21" t="n"/>
+      <c r="A197" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B197" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C197" s="21" t="inlineStr">
+        <is>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
+        </is>
+      </c>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="n"/>
+      <c r="E197" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G197" s="21" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="n"/>
+      <c r="L197" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="n"/>
-      <c r="B198" s="21" t="n"/>
-      <c r="C198" s="21" t="n"/>
+      <c r="A198" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C198" s="21" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="n"/>
+      <c r="E198" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G198" s="21" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="n"/>
+      <c r="L198" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="n"/>
-      <c r="B199" s="21" t="n"/>
-      <c r="C199" s="21" t="n"/>
+      <c r="A199" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B199" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C199" s="21" t="inlineStr">
+        <is>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+        </is>
+      </c>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="n"/>
+      <c r="E199" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G199" s="21" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="n"/>
+      <c r="L199" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="n"/>
-      <c r="B200" s="21" t="n"/>
-      <c r="C200" s="21" t="n"/>
+      <c r="A200" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C200" s="21" t="inlineStr">
+        <is>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+        </is>
+      </c>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="n"/>
+      <c r="E200" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G200" s="21" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="n"/>
+      <c r="L200" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="n"/>
-      <c r="B201" s="21" t="n"/>
-      <c r="C201" s="21" t="n"/>
+      <c r="A201" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B201" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C201" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="n"/>
+      <c r="E201" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G201" s="21" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="n"/>
+      <c r="L201" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
@@ -11618,7 +11889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11746,7 +12017,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -11773,12 +12044,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -11800,7 +12071,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -5345,13 +5345,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,19 +5362,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5391,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,19 +5408,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5437,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5454,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5466,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5487,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5504,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,13 +5537,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5562,7 +5554,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5566,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,19 +5604,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,13 +5637,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5662,7 +5654,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5674,7 +5666,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5687,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,7 +5704,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5724,7 +5716,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5745,7 +5737,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5762,7 +5754,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5774,7 +5766,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5795,7 +5787,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5812,15 +5804,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5841,13 +5837,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5854,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Ao implantar uma VM do AD Connect, considere ter um servidor de preparo para alta disponibilidade/recuperação de desastres</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5904,15 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5932,18 +5928,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Se você estiver implantando pelo menos duas VMs executando o AD DS como controladores de domínio, adicione-as a zonas de disponibilidade diferentes. Se não estiver disponível na região, implante em um Conjunto de Disponibilidade.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5954,19 +5950,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5979,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6016,7 +6008,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6029,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6046,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6079,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,19 +6096,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6137,13 +6129,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6146,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6187,13 +6179,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6207,12 +6199,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="15" t="n"/>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6233,13 +6229,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6250,19 +6246,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,18 +6274,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6300,14 +6296,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6323,18 +6319,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS das máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6345,14 +6341,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6373,13 +6374,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6390,19 +6391,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6423,7 +6419,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6440,19 +6436,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6473,13 +6465,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6490,7 +6482,7 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6502,7 +6494,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que as políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6540,19 +6532,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6573,7 +6565,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6590,19 +6582,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6623,13 +6615,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6640,19 +6632,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,13 +6665,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6690,19 +6682,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,7 +6715,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6740,15 +6732,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,7 +6765,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6786,15 +6782,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
+          <t>Use regras de rede baseadas em FQDN e o Firewall do Azure com proxy DNS para filtrar o tráfego de saída para a Internet sem suporte pelas regras de aplicativo.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
+          <t>Use o Firewall do Azure Premium para segurança e proteção adicionais.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
+          <t>Configure o modo de Inteligência de Ameaças do Firewall do Azure para Alertar e Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6922,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6945,12 +6945,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
+          <t>Configure o modo IDPS do Firewall do Azure para Negar para obter proteção adicional.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,19 +6967,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,18 +6990,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
+          <t>Para sub-redes em redes virtuais não conectadas à WAN Virtual, anexe uma tabela de rotas para que o tráfego da Internet seja redirecionado para o Firewall do Azure ou para um Dispositivo Virtual de Rede</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7017,19 +7012,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7050,13 +7040,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
+          <t>Verifique se a comunicação do plano de controle para os serviços de PaaS do Azure injetados em uma rede virtual não está interrompida, por exemplo, com uma rota 0.0.0.0/0 ou uma regra NSG que bloqueia o tráfego do plano de controle.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7067,19 +7057,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7100,7 +7090,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use o Link Privado, quando disponível, para serviços de PaaS compartilhados do Azure.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7122,14 +7112,14 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7150,7 +7140,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
+          <t>Acesse os serviços de PaaS do Azure locais por meio de pontos de extremidade privados e emparelhamento privado da Rota Expressa. Esse método evita o trânsito pela internet pública.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7172,14 +7162,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7195,18 +7185,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7217,14 +7207,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,18 +7235,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
+          <t>Se estiver usando pontos de extremidade de serviço de rede virtual, filtre FQDNs de saída em um NVA para evitar a exfiltração de dados.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7262,14 +7257,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7290,13 +7290,13 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
+          <t>Use um prefixo /26 para suas sub-redes do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,13 +7335,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
+          <t>Use pelo menos um prefixo /27 para suas sub-redes do Gateway</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7352,19 +7352,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7385,7 +7380,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Não confie nas regras padrão de entrada do NSG usando a marca de serviço VirtualNetwork para limitar a conectividade.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7402,19 +7397,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7435,7 +7425,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t xml:space="preserve">Delegue a criação da sub-rede ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7450,17 +7440,21 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7481,7 +7475,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7498,7 +7492,7 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7510,7 +7504,7 @@
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7531,7 +7525,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível de sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7546,21 +7540,17 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H141" s="15" t="n"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7576,12 +7566,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7598,19 +7588,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7626,12 +7616,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Habilite os logs de fluxo NSG e alimente-os na Análise de Tráfego para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7648,14 +7638,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7676,13 +7671,13 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se seu cenário está explicitamente descrito na lista de designs de roteamento de WAN Virtual</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7693,14 +7688,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
+          <t>Use um hub de WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7739,18 +7739,13 @@
       <c r="H145" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7771,13 +7766,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Siga o princípio 'o tráfego no Azure permanece no Azure' para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7788,14 +7783,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7816,7 +7811,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure em hubs seguros</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7833,14 +7828,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
+          <t>Certifique-se de que suas implantações de IaC não desabilitem o tráfego de ramificação para filial na WAN Virtual, a menos que esses fluxos devam ser explicitamente bloqueados.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,13 +7996,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
+          <t>Use o AS-Path como preferência de roteamento de hub, já que ele é mais flexível do que o ExpressRoute ou o VPN.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8013,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8031,23 +8031,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Certifique-se de que suas implantações IaC estejam configurando a propagação baseada em rótulo na WAN Virtual, caso contrário, a conectividade entre hubs virtuais será prejudicada.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8058,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8076,23 +8076,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Atribua espaço IP suficiente a hubs virtuais, idealmente um prefixo /23.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,7 +8121,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8166,7 +8166,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8193,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8238,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8266,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8328,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,13 +8446,13 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8463,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,13 +8491,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8508,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8553,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,13 +8581,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8598,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8666,18 +8666,18 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8733,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8761,13 +8761,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8785,7 +8785,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8823,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Mapeie os requisitos normativos e de conformidade para definições de Política do Azure e atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,13 +8896,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8913,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Gerencie atribuições de política no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,17 +8986,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="inlineStr">
-        <is>
-          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
-        </is>
-      </c>
+          <t>Usar a Política do Azure para controlar quais serviços os usuários podem provisionar no nível do grupo de assinatura/gerenciamento</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9007,14 +9003,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9035,7 +9031,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9059,7 +9055,7 @@
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9080,10 +9076,14 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="n"/>
+          <t>Atribua a função interna de Colaborador de Política de Recursos em um escopo específico para habilitar a governança em nível de aplicativo.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="inlineStr">
+        <is>
+          <t>A atribuição da função Colaborador de Política de Recursos a escopos específicos permite delegar o gerenciamento de políticas a equipes relevantes. Por exemplo, uma equipe central de TI pode supervisionar políticas de nível de grupo de gerenciamento, enquanto as equipes de aplicativos lidam com políticas para suas assinaturas, permitindo a governança distribuída com aderência aos padrões organizacionais.</t>
+        </is>
+      </c>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9097,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
+          <t>Limite o número de atribuições da Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9142,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,14 +9170,10 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9191,14 +9187,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9214,18 +9210,18 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Considere o uso de tags de automação para iniciar/parar VMs em seu ambiente para economizar custos.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9236,14 +9232,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9259,15 +9255,19 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -9281,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9309,13 +9309,13 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9326,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9371,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9423,7 +9423,7 @@
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9468,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9513,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9551,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9603,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use o espaço de trabalho central do Azure Monitor Log Analytics para auditar o uso de chaves, certificados e segredos em cada instância do Cofre de Chaves.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Delegue instanciação do Cofre da Chave e acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9693,7 +9693,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9754,12 +9754,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9799,12 +9799,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente mitigações relevantes para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões apropriados e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9821,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Exporte logs de atividade do Azure para os Logs do Monitor do Azure para retenção de dados de longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9911,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9956,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10001,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10046,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10091,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10136,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10154,23 +10154,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10181,14 +10181,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10199,7 +10199,7 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
@@ -10209,13 +10209,13 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10226,14 +10226,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+          <t>Recomenda-se seguir os padrões de nomenclatura de práticas recomendadas da Microsoft</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10271,14 +10271,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10287,30 +10287,90 @@
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="n"/>
-      <c r="B202" s="21" t="n"/>
-      <c r="C202" s="21" t="n"/>
+      <c r="A202" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C202" s="21" t="inlineStr">
+        <is>
+          <t>A transferência segura para contas de armazenamento deve ser habilitada</t>
+        </is>
+      </c>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="n"/>
+      <c r="E202" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G202" s="21" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="n"/>
+      <c r="L202" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="n"/>
-      <c r="B203" s="21" t="n"/>
-      <c r="C203" s="21" t="n"/>
+      <c r="A203" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança, Governança e Compliance </t>
+        </is>
+      </c>
+      <c r="B203" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C203" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a exclusão flexível do contêiner para que a conta de armazenamento recupere um contêiner excluído e seu conteúdo.</t>
+        </is>
+      </c>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="n"/>
+      <c r="E203" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G203" s="21" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="n"/>
+      <c r="L203" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
@@ -11889,7 +11949,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.pt.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Proteção de Dados</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Considere a replicação entre regiões no Azure para BCDR com regiões emparelhadas</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Backup e recuperação de desastres</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Implementar para acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1213,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementar para acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de conta em todo o locatário</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1263,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1296,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1313,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1346,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos a ambientes do Azure</t>
+          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1363,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1396,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Impor a autenticação multifator para qualquer usuário com direitos aos ambientes do Azure</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1413,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
+          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1463,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1496,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Impor o Gerenciamento de Identidades Privilegiadas (PIM) do Azure AD para estabelecer acesso permanente zero e privilégio mínimo</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1513,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1546,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1563,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1596,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1613,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1646,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Considere usar funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1663,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure podem ser implantadas para impô-los</t>
+          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1713,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se os Serviços de Domínios do Active Directory (AADDS) do Azure estiverem em uso, implante o AADDS na região primária porque esse serviço só pode ser projetado em uma assinatura</t>
+          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1768,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1813,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1846,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
+          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1863,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o Proxy de Aplicativo do Azure AD como uma VPN ou substituição de proxy reverso para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou localmente).</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1913,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1936,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com no máximo três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1963,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com no máximo três a quatro níveis, idealmente</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +2013,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2063,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2125,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
+          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2175,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aplique uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub de WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
+          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2213,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2241,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Impor que nenhuma assinatura seja colocada no grupo de gerenciamento raiz</t>
+          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2258,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Impor que apenas usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2303,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2311,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2332,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2357,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2378,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, acessar a revisão, revisar o orçamento, a conformidade com a política e corrigir quando necessário.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2395,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2403,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2424,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2441,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use instâncias reservadas quando apropriado para otimizar o custo e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada compradas por meio da Política do Azure.</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2491,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2524,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2541,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2574,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2591,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2624,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Impor um processo para gerenciamento de custos</t>
+          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2641,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Se AD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2691,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2714,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2741,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2770,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2787,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2795,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2811,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2833,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2866,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2881,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2923,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2958,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2987,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +3025,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3058,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no convidado usando a Política do Azure. Habilitar recursos de auditoria de configuração de convidado por meio de política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3075,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3108,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3125,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3175,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3208,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3225,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento de plataforma. Controlar a integridade do serviço e do recurso da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma de Integridade de Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado na zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Considere as regiões com suporte para contas vinculadas de espaço de trabalho e automação do Log Analytics</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3814,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
